--- a/logit.xlsx
+++ b/logit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'step by step'!$C$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">工具或命令!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">过程描述表!$B$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总表!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">工具或命令!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">过程描述表!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总表!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="134">
   <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,10 +312,6 @@
   </si>
   <si>
     <t>status-04</t>
-  </si>
-  <si>
-    <t>emmt命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git remote set-url origin https://github.com/dt3316/sites.git</t>
@@ -866,119 +862,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="str">
-        <f>C2&amp;"-&gt;"&amp;C3</f>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>A2&amp;"-&gt;"&amp;A3</f>
         <v>空白-&gt;初始</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C8" si="0">C3&amp;"-&gt;"&amp;C4</f>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" ref="A7:A8" si="0">A3&amp;"-&gt;"&amp;A4</f>
         <v>初始-&gt;与本地同步</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="str">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>与本地同步-&gt;与GitHub同步</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:C1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -997,8 +985,8 @@
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1095,296 +1083,292 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1396,302 +1380,298 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:I1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1701,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1714,13 +1694,13 @@
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -1728,208 +1708,208 @@
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
